--- a/Millikan/Dati_Raccolti_Puliti.xlsx
+++ b/Millikan/Dati_Raccolti_Puliti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiaballico/Documents/Programmazione/Universita/Labo_2_Anno_ottica/Millikan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE3A294-7A98-E848-B98F-17BB5E27141D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1479BC34-145F-D34A-8108-A54158770889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" activeTab="2" xr2:uid="{9EF375B5-70B8-E84A-A892-B2B16B1AD303}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21360" activeTab="2" xr2:uid="{9EF375B5-70B8-E84A-A892-B2B16B1AD303}"/>
   </bookViews>
   <sheets>
     <sheet name="Cosa contiene questo file" sheetId="18" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="36">
   <si>
     <t>rho_aria [kg/m^3]</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>non si vedeal quinto passaggio</t>
+  </si>
+  <si>
+    <t>la salita è diventata troppo lenta</t>
   </si>
   <si>
     <t>abbiamo anche preso un video di più gocce contemporaneamente</t>
@@ -846,7 +849,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="7">
         <v>1.01</v>
@@ -948,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A075E98-9509-5942-BC62-3D59F220DD43}">
   <dimension ref="A1:Y200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="57" workbookViewId="0">
-      <selection activeCell="AG131" sqref="AG131"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:Y88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1042,6 +1045,9 @@
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F3">
+        <v>322</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="1" t="s">
         <v>3</v>
@@ -1150,14 +1156,14 @@
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3">
-        <v>49.92</v>
-      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3">
+        <v>2.19</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="3" t="s">
         <v>5</v>
@@ -1169,7 +1175,9 @@
       <c r="K6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="3">
+        <v>2.2599999999999998</v>
+      </c>
       <c r="M6" s="2"/>
       <c r="N6" s="3" t="s">
         <v>5</v>
@@ -1198,7 +1206,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>56.53</v>
+        <v>49.92</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s">
@@ -1214,9 +1222,6 @@
       <c r="J7" s="2"/>
       <c r="K7" t="s">
         <v>7</v>
-      </c>
-      <c r="L7">
-        <v>2.81</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" t="s">
@@ -1242,13 +1247,15 @@
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>50.1</v>
+        <v>56.53</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3">
+        <v>2.58</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="3" t="s">
         <v>8</v>
@@ -1260,9 +1267,7 @@
       <c r="K8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="3">
-        <v>2.79</v>
-      </c>
+      <c r="L8" s="3"/>
       <c r="M8" s="2"/>
       <c r="N8" s="3" t="s">
         <v>8</v>
@@ -1290,9 +1295,15 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
+      <c r="C9">
+        <v>50.1</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s">
         <v>9</v>
+      </c>
+      <c r="F9">
+        <v>2.46</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" t="s">
@@ -1868,6 +1879,9 @@
       <c r="E24" t="s">
         <v>9</v>
       </c>
+      <c r="F24">
+        <v>3.71</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" t="s">
         <v>9</v>
@@ -1878,6 +1892,9 @@
       <c r="J24" s="2"/>
       <c r="K24" t="s">
         <v>9</v>
+      </c>
+      <c r="L24">
+        <v>3.46</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s">
@@ -2094,6 +2111,9 @@
       <c r="B32" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C32">
+        <v>22</v>
+      </c>
       <c r="D32" s="2"/>
       <c r="E32" s="4"/>
       <c r="F32" s="2"/>
@@ -2122,9 +2142,15 @@
       <c r="B33" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
       <c r="D33" s="2"/>
       <c r="E33" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="F33">
+        <v>354</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="1" t="s">
@@ -2184,9 +2210,15 @@
       <c r="B35" t="s">
         <v>4</v>
       </c>
+      <c r="C35">
+        <v>25.13</v>
+      </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s">
         <v>4</v>
+      </c>
+      <c r="F35">
+        <v>1.42</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" t="s">
@@ -2219,12 +2251,16 @@
       <c r="B36" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="C36" s="3">
+        <v>21.35</v>
+      </c>
       <c r="D36" s="2"/>
       <c r="E36" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F36" s="3"/>
+      <c r="F36" s="3">
+        <v>1.01</v>
+      </c>
       <c r="G36" s="2"/>
       <c r="H36" s="3" t="s">
         <v>5</v>
@@ -2262,9 +2298,15 @@
       <c r="B37" t="s">
         <v>7</v>
       </c>
+      <c r="C37">
+        <v>22.15</v>
+      </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s">
         <v>7</v>
+      </c>
+      <c r="F37">
+        <v>1.0900000000000001</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" t="s">
@@ -2297,12 +2339,16 @@
       <c r="B38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="3"/>
+      <c r="C38" s="3">
+        <v>20.190000000000001</v>
+      </c>
       <c r="D38" s="2"/>
       <c r="E38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="3"/>
+      <c r="F38" s="3">
+        <v>1.08</v>
+      </c>
       <c r="G38" s="2"/>
       <c r="H38" s="3" t="s">
         <v>8</v>
@@ -2344,6 +2390,9 @@
       <c r="E39" t="s">
         <v>9</v>
       </c>
+      <c r="F39">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="G39" s="2"/>
       <c r="H39" t="s">
         <v>9</v>
@@ -2375,12 +2424,16 @@
       <c r="B40" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="3">
+        <v>19.78</v>
+      </c>
       <c r="D40" s="2"/>
       <c r="E40" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="3"/>
+      <c r="F40" s="3">
+        <v>1.27</v>
+      </c>
       <c r="G40" s="2"/>
       <c r="H40" s="3" t="s">
         <v>10</v>
@@ -2660,9 +2713,6 @@
       <c r="B50" t="s">
         <v>4</v>
       </c>
-      <c r="C50">
-        <v>9.2799999999999994</v>
-      </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s">
         <v>4</v>
@@ -3123,6 +3173,9 @@
       <c r="K63" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="L63">
+        <v>-354</v>
+      </c>
       <c r="M63" s="2"/>
       <c r="N63" s="1" t="s">
         <v>3</v>
@@ -3200,6 +3253,9 @@
       <c r="K65" t="s">
         <v>4</v>
       </c>
+      <c r="L65">
+        <v>1.61</v>
+      </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s">
         <v>4</v>
@@ -3210,6 +3266,9 @@
       <c r="P65" s="2"/>
       <c r="Q65" t="s">
         <v>4</v>
+      </c>
+      <c r="R65">
+        <v>1.36</v>
       </c>
       <c r="S65" s="2"/>
       <c r="T65" t="s">
@@ -3249,7 +3308,9 @@
       <c r="K66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L66" s="3"/>
+      <c r="L66" s="3">
+        <v>1.97</v>
+      </c>
       <c r="M66" s="2"/>
       <c r="N66" s="3" t="s">
         <v>5</v>
@@ -3261,7 +3322,9 @@
       <c r="Q66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R66" s="3"/>
+      <c r="R66" s="3">
+        <v>2.0099999999999998</v>
+      </c>
       <c r="S66" s="2"/>
       <c r="T66" s="3" t="s">
         <v>5</v>
@@ -3298,6 +3361,9 @@
       <c r="K67" t="s">
         <v>7</v>
       </c>
+      <c r="L67">
+        <v>1.65</v>
+      </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s">
         <v>7</v>
@@ -3350,7 +3416,9 @@
       <c r="K68" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L68" s="3"/>
+      <c r="L68" s="3">
+        <v>1.83</v>
+      </c>
       <c r="M68" s="2"/>
       <c r="N68" s="3" t="s">
         <v>8</v>
@@ -3400,6 +3468,9 @@
       <c r="J69" s="2"/>
       <c r="K69" t="s">
         <v>9</v>
+      </c>
+      <c r="L69">
+        <v>1.83</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s">
@@ -3617,12 +3688,7 @@
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
-      <c r="B77" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C77">
-        <v>22</v>
-      </c>
+      <c r="B77" s="1"/>
       <c r="D77" s="2"/>
       <c r="E77" s="4"/>
       <c r="F77" s="2"/>
@@ -3648,61 +3714,21 @@
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
-      <c r="B78" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
+      <c r="B78" s="1"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F78">
-        <v>-354</v>
-      </c>
+      <c r="E78" s="1"/>
       <c r="G78" s="2"/>
-      <c r="H78" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I78">
-        <v>354</v>
-      </c>
+      <c r="H78" s="1"/>
       <c r="J78" s="2"/>
-      <c r="K78" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L78">
-        <v>-354</v>
-      </c>
+      <c r="K78" s="1"/>
       <c r="M78" s="2"/>
-      <c r="N78" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O78">
-        <v>354</v>
-      </c>
+      <c r="N78" s="1"/>
       <c r="P78" s="2"/>
-      <c r="Q78" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R78">
-        <v>-354</v>
-      </c>
+      <c r="Q78" s="1"/>
       <c r="S78" s="2"/>
-      <c r="T78" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U78">
-        <v>354</v>
-      </c>
+      <c r="T78" s="1"/>
       <c r="V78" s="2"/>
-      <c r="W78" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X78">
-        <v>-354</v>
-      </c>
+      <c r="W78" s="1"/>
       <c r="Y78" s="2"/>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.2">
@@ -3734,417 +3760,153 @@
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
-      <c r="B80" t="s">
-        <v>4</v>
-      </c>
-      <c r="C80">
-        <v>15.47</v>
-      </c>
       <c r="D80" s="2"/>
-      <c r="E80" t="s">
-        <v>4</v>
-      </c>
-      <c r="F80">
-        <v>4.71</v>
-      </c>
       <c r="G80" s="2"/>
-      <c r="H80" t="s">
-        <v>4</v>
-      </c>
-      <c r="I80">
-        <v>2.75</v>
-      </c>
       <c r="J80" s="2"/>
-      <c r="K80" t="s">
-        <v>4</v>
-      </c>
-      <c r="L80">
-        <v>3.47</v>
-      </c>
       <c r="M80" s="2"/>
-      <c r="N80" t="s">
-        <v>4</v>
-      </c>
-      <c r="O80">
-        <v>2.25</v>
-      </c>
       <c r="P80" s="2"/>
-      <c r="Q80" t="s">
-        <v>4</v>
-      </c>
-      <c r="R80">
-        <v>3.08</v>
-      </c>
       <c r="S80" s="2"/>
-      <c r="T80" t="s">
-        <v>4</v>
-      </c>
-      <c r="U80">
-        <v>2.35</v>
-      </c>
       <c r="V80" s="2"/>
-      <c r="W80" t="s">
-        <v>4</v>
-      </c>
-      <c r="X80">
-        <v>3.48</v>
-      </c>
       <c r="Y80" s="2"/>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
-      <c r="B81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" s="3">
-        <v>14.66</v>
-      </c>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
       <c r="D81" s="2"/>
-      <c r="E81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3">
-        <v>4.74</v>
-      </c>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
       <c r="G81" s="2"/>
-      <c r="H81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="3">
-        <v>2.84</v>
-      </c>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
       <c r="J81" s="2"/>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
-        <v>3.1</v>
-      </c>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
       <c r="M81" s="2"/>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
-        <v>2.1</v>
-      </c>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
       <c r="P81" s="2"/>
-      <c r="Q81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R81" s="3">
-        <v>3.17</v>
-      </c>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
       <c r="S81" s="2"/>
-      <c r="T81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U81" s="3">
-        <v>2.38</v>
-      </c>
+      <c r="T81" s="3"/>
+      <c r="U81" s="3"/>
       <c r="V81" s="2"/>
-      <c r="W81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X81" s="3">
-        <v>3.25</v>
-      </c>
+      <c r="W81" s="3"/>
+      <c r="X81" s="3"/>
       <c r="Y81" s="2"/>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
-      <c r="B82" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82">
-        <v>16.649999999999999</v>
-      </c>
       <c r="D82" s="2"/>
-      <c r="E82" t="s">
-        <v>7</v>
-      </c>
-      <c r="F82">
-        <v>4.78</v>
-      </c>
       <c r="G82" s="2"/>
-      <c r="H82" t="s">
-        <v>7</v>
-      </c>
-      <c r="I82">
-        <v>2.88</v>
-      </c>
       <c r="J82" s="2"/>
-      <c r="K82" t="s">
-        <v>7</v>
-      </c>
-      <c r="L82">
-        <v>3.42</v>
-      </c>
       <c r="M82" s="2"/>
-      <c r="N82" t="s">
-        <v>7</v>
-      </c>
-      <c r="O82">
-        <v>2.08</v>
-      </c>
       <c r="P82" s="2"/>
-      <c r="Q82" t="s">
-        <v>7</v>
-      </c>
-      <c r="R82">
-        <v>3.44</v>
-      </c>
       <c r="S82" s="2"/>
-      <c r="T82" t="s">
-        <v>7</v>
-      </c>
-      <c r="U82">
-        <v>2.54</v>
-      </c>
       <c r="V82" s="2"/>
-      <c r="W82" t="s">
-        <v>7</v>
-      </c>
-      <c r="X82">
-        <v>3.07</v>
-      </c>
       <c r="Y82" s="2"/>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
-      <c r="B83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="3">
-        <v>15.77</v>
-      </c>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
       <c r="D83" s="2"/>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="3">
-        <v>4.62</v>
-      </c>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
       <c r="G83" s="2"/>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I83" s="3">
-        <v>2.85</v>
-      </c>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
       <c r="J83" s="2"/>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L83" s="3">
-        <v>3.4</v>
-      </c>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
       <c r="M83" s="2"/>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O83" s="3">
-        <v>2.54</v>
-      </c>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
       <c r="P83" s="2"/>
-      <c r="Q83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R83" s="3">
-        <v>3.2</v>
-      </c>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
       <c r="S83" s="2"/>
-      <c r="T83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U83" s="3">
-        <v>2.3199999999999998</v>
-      </c>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
       <c r="V83" s="2"/>
-      <c r="W83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X83" s="3">
-        <v>3.54</v>
-      </c>
+      <c r="W83" s="3"/>
+      <c r="X83" s="3"/>
       <c r="Y83" s="2"/>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
-      <c r="B84" t="s">
-        <v>9</v>
-      </c>
-      <c r="C84">
-        <v>15.45</v>
-      </c>
       <c r="D84" s="2"/>
-      <c r="E84" t="s">
-        <v>9</v>
-      </c>
-      <c r="F84">
-        <v>4.8600000000000003</v>
-      </c>
       <c r="G84" s="2"/>
-      <c r="H84" t="s">
-        <v>9</v>
-      </c>
-      <c r="I84">
-        <v>2.95</v>
-      </c>
       <c r="J84" s="2"/>
-      <c r="K84" t="s">
-        <v>9</v>
-      </c>
-      <c r="L84">
-        <v>3.29</v>
-      </c>
       <c r="M84" s="2"/>
-      <c r="N84" t="s">
-        <v>9</v>
-      </c>
-      <c r="O84">
-        <v>2.4700000000000002</v>
-      </c>
       <c r="P84" s="2"/>
-      <c r="Q84" t="s">
-        <v>9</v>
-      </c>
-      <c r="R84">
-        <v>3.18</v>
-      </c>
       <c r="S84" s="2"/>
-      <c r="T84" t="s">
-        <v>9</v>
-      </c>
-      <c r="U84">
-        <v>2.19</v>
-      </c>
       <c r="V84" s="2"/>
-      <c r="W84" t="s">
-        <v>9</v>
-      </c>
-      <c r="X84">
-        <v>3.43</v>
-      </c>
       <c r="Y84" s="2"/>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
-      <c r="B85" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="2"/>
-      <c r="E85" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="2"/>
-      <c r="H85" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="2"/>
-      <c r="K85" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="M85" s="2"/>
-      <c r="N85" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="N85" s="3"/>
       <c r="O85" s="3"/>
       <c r="P85" s="2"/>
-      <c r="Q85" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="Q85" s="3"/>
       <c r="R85" s="3"/>
       <c r="S85" s="2"/>
-      <c r="T85" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="T85" s="3"/>
       <c r="U85" s="3"/>
       <c r="V85" s="2"/>
-      <c r="W85" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="W85" s="3"/>
       <c r="X85" s="3"/>
       <c r="Y85" s="2"/>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
-      <c r="B86" t="s">
-        <v>11</v>
-      </c>
       <c r="D86" s="2"/>
-      <c r="E86" t="s">
-        <v>11</v>
-      </c>
       <c r="G86" s="2"/>
-      <c r="H86" t="s">
-        <v>11</v>
-      </c>
       <c r="J86" s="2"/>
-      <c r="K86" t="s">
-        <v>11</v>
-      </c>
       <c r="M86" s="2"/>
-      <c r="N86" t="s">
-        <v>11</v>
-      </c>
       <c r="P86" s="2"/>
-      <c r="Q86" t="s">
-        <v>11</v>
-      </c>
       <c r="S86" s="2"/>
-      <c r="T86" t="s">
-        <v>11</v>
-      </c>
       <c r="V86" s="2"/>
-      <c r="W86" t="s">
-        <v>11</v>
-      </c>
       <c r="Y86" s="2"/>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
-      <c r="B87" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="2"/>
-      <c r="H87" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="2"/>
-      <c r="K87" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="K87" s="3"/>
       <c r="L87" s="3"/>
       <c r="M87" s="2"/>
-      <c r="N87" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="N87" s="3"/>
       <c r="O87" s="3"/>
       <c r="P87" s="2"/>
-      <c r="Q87" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="Q87" s="3"/>
       <c r="R87" s="3"/>
       <c r="S87" s="2"/>
-      <c r="T87" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="T87" s="3"/>
       <c r="U87" s="3"/>
       <c r="V87" s="2"/>
-      <c r="W87" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="W87" s="3"/>
       <c r="X87" s="3"/>
       <c r="Y87" s="2"/>
     </row>
@@ -4416,7 +4178,9 @@
       <c r="N96" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O96" s="3"/>
+      <c r="O96" s="3">
+        <v>2.98</v>
+      </c>
       <c r="P96" s="2"/>
       <c r="Q96" s="3" t="s">
         <v>5</v>
@@ -4779,7 +4543,12 @@
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
-      <c r="B107" s="1"/>
+      <c r="B107" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107">
+        <v>23</v>
+      </c>
       <c r="D107" s="2"/>
       <c r="E107" s="4"/>
       <c r="F107" s="2"/>
@@ -4805,21 +4574,61 @@
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
-      <c r="B108" s="1"/>
+      <c r="B108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
       <c r="D108" s="2"/>
-      <c r="E108" s="1"/>
+      <c r="E108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F108">
+        <v>-375</v>
+      </c>
       <c r="G108" s="2"/>
-      <c r="H108" s="1"/>
+      <c r="H108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I108">
+        <v>375</v>
+      </c>
       <c r="J108" s="2"/>
-      <c r="K108" s="1"/>
+      <c r="K108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L108">
+        <v>-375</v>
+      </c>
       <c r="M108" s="2"/>
-      <c r="N108" s="1"/>
+      <c r="N108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O108">
+        <v>375</v>
+      </c>
       <c r="P108" s="2"/>
-      <c r="Q108" s="1"/>
+      <c r="Q108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R108">
+        <v>-375</v>
+      </c>
       <c r="S108" s="2"/>
-      <c r="T108" s="1"/>
+      <c r="T108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U108">
+        <v>375</v>
+      </c>
       <c r="V108" s="2"/>
-      <c r="W108" s="1"/>
+      <c r="W108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X108">
+        <v>-375</v>
+      </c>
       <c r="Y108" s="2"/>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.2">
@@ -4851,153 +4660,417 @@
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
+      <c r="B110" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110">
+        <v>11.17</v>
+      </c>
       <c r="D110" s="2"/>
+      <c r="E110" t="s">
+        <v>4</v>
+      </c>
+      <c r="F110">
+        <v>1.73</v>
+      </c>
       <c r="G110" s="2"/>
+      <c r="H110" t="s">
+        <v>4</v>
+      </c>
+      <c r="I110">
+        <v>1.53</v>
+      </c>
       <c r="J110" s="2"/>
+      <c r="K110" t="s">
+        <v>4</v>
+      </c>
+      <c r="L110">
+        <v>1.87</v>
+      </c>
       <c r="M110" s="2"/>
+      <c r="N110" t="s">
+        <v>4</v>
+      </c>
+      <c r="O110">
+        <v>1.45</v>
+      </c>
       <c r="P110" s="2"/>
+      <c r="Q110" t="s">
+        <v>4</v>
+      </c>
+      <c r="R110">
+        <v>1.75</v>
+      </c>
       <c r="S110" s="2"/>
+      <c r="T110" t="s">
+        <v>4</v>
+      </c>
+      <c r="U110">
+        <v>1.38</v>
+      </c>
       <c r="V110" s="2"/>
+      <c r="W110" t="s">
+        <v>4</v>
+      </c>
+      <c r="X110">
+        <v>1.5</v>
+      </c>
       <c r="Y110" s="2"/>
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
+      <c r="B111" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" s="3">
+        <v>10.75</v>
+      </c>
       <c r="D111" s="2"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
+      <c r="E111" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F111" s="3">
+        <v>1.74</v>
+      </c>
       <c r="G111" s="2"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
+      <c r="H111" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I111" s="3">
+        <v>1.37</v>
+      </c>
       <c r="J111" s="2"/>
-      <c r="K111" s="3"/>
-      <c r="L111" s="3"/>
+      <c r="K111" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L111" s="3">
+        <v>1.65</v>
+      </c>
       <c r="M111" s="2"/>
-      <c r="N111" s="3"/>
-      <c r="O111" s="3"/>
+      <c r="N111" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O111" s="3">
+        <v>1.37</v>
+      </c>
       <c r="P111" s="2"/>
-      <c r="Q111" s="3"/>
-      <c r="R111" s="3"/>
+      <c r="Q111" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R111" s="3">
+        <v>1.78</v>
+      </c>
       <c r="S111" s="2"/>
-      <c r="T111" s="3"/>
-      <c r="U111" s="3"/>
+      <c r="T111" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U111" s="3">
+        <v>1.2</v>
+      </c>
       <c r="V111" s="2"/>
-      <c r="W111" s="3"/>
-      <c r="X111" s="3"/>
+      <c r="W111" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X111" s="3">
+        <v>1.48</v>
+      </c>
       <c r="Y111" s="2"/>
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112">
+        <v>11.83</v>
+      </c>
       <c r="D112" s="2"/>
+      <c r="E112" t="s">
+        <v>7</v>
+      </c>
+      <c r="F112">
+        <v>1.7</v>
+      </c>
       <c r="G112" s="2"/>
+      <c r="H112" t="s">
+        <v>7</v>
+      </c>
+      <c r="I112">
+        <v>1.22</v>
+      </c>
       <c r="J112" s="2"/>
+      <c r="K112" t="s">
+        <v>7</v>
+      </c>
+      <c r="L112">
+        <v>1.62</v>
+      </c>
       <c r="M112" s="2"/>
+      <c r="N112" t="s">
+        <v>7</v>
+      </c>
+      <c r="O112">
+        <v>1.33</v>
+      </c>
       <c r="P112" s="2"/>
+      <c r="Q112" t="s">
+        <v>7</v>
+      </c>
+      <c r="R112">
+        <v>1.76</v>
+      </c>
       <c r="S112" s="2"/>
+      <c r="T112" t="s">
+        <v>7</v>
+      </c>
+      <c r="U112">
+        <v>1.42</v>
+      </c>
       <c r="V112" s="2"/>
+      <c r="W112" t="s">
+        <v>7</v>
+      </c>
+      <c r="X112">
+        <v>1.59</v>
+      </c>
       <c r="Y112" s="2"/>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
+      <c r="B113" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="3">
+        <v>12.03</v>
+      </c>
       <c r="D113" s="2"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
+      <c r="E113" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113" s="3">
+        <v>1.74</v>
+      </c>
       <c r="G113" s="2"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
+      <c r="H113" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I113" s="3">
+        <v>1.3</v>
+      </c>
       <c r="J113" s="2"/>
-      <c r="K113" s="3"/>
-      <c r="L113" s="3"/>
+      <c r="K113" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L113" s="3">
+        <v>1.73</v>
+      </c>
       <c r="M113" s="2"/>
-      <c r="N113" s="3"/>
-      <c r="O113" s="3"/>
+      <c r="N113" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O113" s="3">
+        <v>1.62</v>
+      </c>
       <c r="P113" s="2"/>
-      <c r="Q113" s="3"/>
-      <c r="R113" s="3"/>
+      <c r="Q113" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R113" s="3">
+        <v>1.65</v>
+      </c>
       <c r="S113" s="2"/>
-      <c r="T113" s="3"/>
-      <c r="U113" s="3"/>
+      <c r="T113" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U113" s="3">
+        <v>1.37</v>
+      </c>
       <c r="V113" s="2"/>
-      <c r="W113" s="3"/>
-      <c r="X113" s="3"/>
+      <c r="W113" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X113" s="3">
+        <v>1.52</v>
+      </c>
       <c r="Y113" s="2"/>
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114">
+        <v>11.09</v>
+      </c>
       <c r="D114" s="2"/>
+      <c r="E114" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114">
+        <v>1.71</v>
+      </c>
       <c r="G114" s="2"/>
+      <c r="H114" t="s">
+        <v>9</v>
+      </c>
+      <c r="I114">
+        <v>1.31</v>
+      </c>
       <c r="J114" s="2"/>
+      <c r="K114" t="s">
+        <v>9</v>
+      </c>
+      <c r="L114">
+        <v>1.87</v>
+      </c>
       <c r="M114" s="2"/>
+      <c r="N114" t="s">
+        <v>9</v>
+      </c>
+      <c r="O114">
+        <v>1.28</v>
+      </c>
       <c r="P114" s="2"/>
+      <c r="Q114" t="s">
+        <v>9</v>
+      </c>
+      <c r="R114">
+        <v>1.79</v>
+      </c>
       <c r="S114" s="2"/>
+      <c r="T114" t="s">
+        <v>9</v>
+      </c>
+      <c r="U114">
+        <v>1.46</v>
+      </c>
       <c r="V114" s="2"/>
+      <c r="W114" t="s">
+        <v>9</v>
+      </c>
+      <c r="X114">
+        <v>1.62</v>
+      </c>
       <c r="Y114" s="2"/>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
-      <c r="B115" s="3"/>
+      <c r="B115" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C115" s="3"/>
       <c r="D115" s="2"/>
-      <c r="E115" s="3"/>
+      <c r="E115" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="F115" s="3"/>
       <c r="G115" s="2"/>
-      <c r="H115" s="3"/>
+      <c r="H115" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="I115" s="3"/>
       <c r="J115" s="2"/>
-      <c r="K115" s="3"/>
+      <c r="K115" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="L115" s="3"/>
       <c r="M115" s="2"/>
-      <c r="N115" s="3"/>
+      <c r="N115" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="O115" s="3"/>
       <c r="P115" s="2"/>
-      <c r="Q115" s="3"/>
+      <c r="Q115" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="R115" s="3"/>
       <c r="S115" s="2"/>
-      <c r="T115" s="3"/>
+      <c r="T115" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="U115" s="3"/>
       <c r="V115" s="2"/>
-      <c r="W115" s="3"/>
+      <c r="W115" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="X115" s="3"/>
       <c r="Y115" s="2"/>
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
+      <c r="B116" t="s">
+        <v>11</v>
+      </c>
       <c r="D116" s="2"/>
+      <c r="E116" t="s">
+        <v>11</v>
+      </c>
       <c r="G116" s="2"/>
+      <c r="H116" t="s">
+        <v>11</v>
+      </c>
       <c r="J116" s="2"/>
+      <c r="K116" t="s">
+        <v>11</v>
+      </c>
       <c r="M116" s="2"/>
+      <c r="N116" t="s">
+        <v>11</v>
+      </c>
       <c r="P116" s="2"/>
+      <c r="Q116" t="s">
+        <v>11</v>
+      </c>
       <c r="S116" s="2"/>
+      <c r="T116" t="s">
+        <v>11</v>
+      </c>
       <c r="V116" s="2"/>
+      <c r="W116" t="s">
+        <v>11</v>
+      </c>
       <c r="Y116" s="2"/>
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
-      <c r="B117" s="3"/>
+      <c r="B117" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C117" s="3"/>
       <c r="D117" s="2"/>
-      <c r="E117" s="3"/>
+      <c r="E117" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="F117" s="3"/>
       <c r="G117" s="2"/>
-      <c r="H117" s="3"/>
+      <c r="H117" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="I117" s="3"/>
       <c r="J117" s="2"/>
-      <c r="K117" s="3"/>
+      <c r="K117" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="L117" s="3"/>
       <c r="M117" s="2"/>
-      <c r="N117" s="3"/>
+      <c r="N117" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="O117" s="3"/>
       <c r="P117" s="2"/>
-      <c r="Q117" s="3"/>
+      <c r="Q117" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="R117" s="3"/>
       <c r="S117" s="2"/>
-      <c r="T117" s="3"/>
+      <c r="T117" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="U117" s="3"/>
       <c r="V117" s="2"/>
-      <c r="W117" s="3"/>
+      <c r="W117" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="X117" s="3"/>
       <c r="Y117" s="2"/>
     </row>
@@ -5028,6 +5101,11 @@
       <c r="X118" s="2"/>
       <c r="Y118" s="2"/>
     </row>
+    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A121" s="23"/>
       <c r="B121" s="23"/>
@@ -5126,13 +5204,22 @@
       <c r="Q123" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="R123">
+        <v>-375</v>
+      </c>
       <c r="S123" s="2"/>
       <c r="T123" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="U123">
+        <v>375</v>
+      </c>
       <c r="V123" s="2"/>
       <c r="W123" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="X123">
+        <v>-375</v>
       </c>
       <c r="Y123" s="2"/>
     </row>
@@ -5175,6 +5262,9 @@
       <c r="E125" t="s">
         <v>4</v>
       </c>
+      <c r="F125">
+        <v>1.88</v>
+      </c>
       <c r="G125" s="2"/>
       <c r="H125" t="s">
         <v>4</v>
@@ -5200,13 +5290,22 @@
       <c r="Q125" t="s">
         <v>4</v>
       </c>
+      <c r="R125">
+        <v>1.48</v>
+      </c>
       <c r="S125" s="2"/>
       <c r="T125" t="s">
         <v>4</v>
       </c>
+      <c r="U125">
+        <v>1.39</v>
+      </c>
       <c r="V125" s="2"/>
       <c r="W125" t="s">
         <v>4</v>
+      </c>
+      <c r="X125">
+        <v>1.81</v>
       </c>
       <c r="Y125" s="2"/>
     </row>
@@ -5250,17 +5349,23 @@
       <c r="Q126" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R126" s="3"/>
+      <c r="R126" s="3">
+        <v>2.11</v>
+      </c>
       <c r="S126" s="2"/>
       <c r="T126" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U126" s="3"/>
+      <c r="U126" s="3">
+        <v>1.27</v>
+      </c>
       <c r="V126" s="2"/>
       <c r="W126" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X126" s="3"/>
+      <c r="X126" s="3">
+        <v>1.67</v>
+      </c>
       <c r="Y126" s="2"/>
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.2">
@@ -5289,6 +5394,9 @@
       <c r="K127" t="s">
         <v>7</v>
       </c>
+      <c r="L127">
+        <v>2.04</v>
+      </c>
       <c r="M127" s="2"/>
       <c r="N127" t="s">
         <v>7</v>
@@ -5300,13 +5408,22 @@
       <c r="Q127" t="s">
         <v>7</v>
       </c>
+      <c r="R127">
+        <v>1.75</v>
+      </c>
       <c r="S127" s="2"/>
       <c r="T127" t="s">
         <v>7</v>
       </c>
+      <c r="U127">
+        <v>1.29</v>
+      </c>
       <c r="V127" s="2"/>
       <c r="W127" t="s">
         <v>7</v>
+      </c>
+      <c r="X127">
+        <v>1.6</v>
       </c>
       <c r="Y127" s="2"/>
     </row>
@@ -5350,17 +5467,23 @@
       <c r="Q128" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R128" s="3"/>
+      <c r="R128" s="3">
+        <v>1.86</v>
+      </c>
       <c r="S128" s="2"/>
       <c r="T128" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U128" s="3"/>
+      <c r="U128" s="3">
+        <v>1.37</v>
+      </c>
       <c r="V128" s="2"/>
       <c r="W128" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X128" s="3"/>
+      <c r="X128" s="3">
+        <v>1.55</v>
+      </c>
       <c r="Y128" s="2"/>
     </row>
     <row r="129" spans="1:25" x14ac:dyDescent="0.2">
@@ -5403,13 +5526,22 @@
       <c r="Q129" t="s">
         <v>9</v>
       </c>
+      <c r="R129">
+        <v>1.6</v>
+      </c>
       <c r="S129" s="2"/>
       <c r="T129" t="s">
         <v>9</v>
       </c>
+      <c r="U129">
+        <v>1.38</v>
+      </c>
       <c r="V129" s="2"/>
       <c r="W129" t="s">
         <v>9</v>
+      </c>
+      <c r="X129">
+        <v>1.52</v>
       </c>
       <c r="Y129" s="2"/>
     </row>
@@ -5595,7 +5727,12 @@
     </row>
     <row r="137" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
-      <c r="B137" s="1"/>
+      <c r="B137" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C137">
+        <v>23</v>
+      </c>
       <c r="D137" s="2"/>
       <c r="E137" s="4"/>
       <c r="F137" s="2"/>
@@ -5621,21 +5758,52 @@
     </row>
     <row r="138" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
-      <c r="B138" s="1"/>
+      <c r="B138" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
       <c r="D138" s="2"/>
-      <c r="E138" s="1"/>
+      <c r="E138" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F138">
+        <v>-373</v>
+      </c>
       <c r="G138" s="2"/>
-      <c r="H138" s="1"/>
+      <c r="H138" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I138">
+        <v>373</v>
+      </c>
       <c r="J138" s="2"/>
-      <c r="K138" s="1"/>
+      <c r="K138" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L138">
+        <v>-373</v>
+      </c>
       <c r="M138" s="2"/>
-      <c r="N138" s="1"/>
+      <c r="N138" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O138">
+        <v>373</v>
+      </c>
       <c r="P138" s="2"/>
-      <c r="Q138" s="1"/>
+      <c r="Q138" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="S138" s="2"/>
-      <c r="T138" s="1"/>
+      <c r="T138" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="V138" s="2"/>
-      <c r="W138" s="1"/>
+      <c r="W138" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="Y138" s="2"/>
     </row>
     <row r="139" spans="1:25" x14ac:dyDescent="0.2">
@@ -5667,153 +5835,378 @@
     </row>
     <row r="140" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
+      <c r="B140" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140">
+        <v>7.39</v>
+      </c>
       <c r="D140" s="2"/>
+      <c r="E140" t="s">
+        <v>4</v>
+      </c>
+      <c r="F140">
+        <v>2.65</v>
+      </c>
       <c r="G140" s="2"/>
+      <c r="H140" t="s">
+        <v>4</v>
+      </c>
+      <c r="I140">
+        <v>1.86</v>
+      </c>
       <c r="J140" s="2"/>
+      <c r="K140" t="s">
+        <v>4</v>
+      </c>
+      <c r="L140">
+        <v>3.64</v>
+      </c>
       <c r="M140" s="2"/>
+      <c r="N140" t="s">
+        <v>4</v>
+      </c>
+      <c r="O140">
+        <v>3.23</v>
+      </c>
       <c r="P140" s="2"/>
+      <c r="Q140" t="s">
+        <v>4</v>
+      </c>
       <c r="S140" s="2"/>
+      <c r="T140" t="s">
+        <v>4</v>
+      </c>
       <c r="V140" s="2"/>
+      <c r="W140" t="s">
+        <v>4</v>
+      </c>
       <c r="Y140" s="2"/>
     </row>
     <row r="141" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="3"/>
+      <c r="B141" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" s="3">
+        <v>7.64</v>
+      </c>
       <c r="D141" s="2"/>
-      <c r="E141" s="3"/>
-      <c r="F141" s="3"/>
+      <c r="E141" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F141" s="3">
+        <v>2.66</v>
+      </c>
       <c r="G141" s="2"/>
-      <c r="H141" s="3"/>
-      <c r="I141" s="3"/>
+      <c r="H141" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I141" s="3">
+        <v>1.75</v>
+      </c>
       <c r="J141" s="2"/>
-      <c r="K141" s="3"/>
-      <c r="L141" s="3"/>
+      <c r="K141" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L141" s="3">
+        <v>3.66</v>
+      </c>
       <c r="M141" s="2"/>
-      <c r="N141" s="3"/>
-      <c r="O141" s="3"/>
+      <c r="N141" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O141" s="3">
+        <v>3.02</v>
+      </c>
       <c r="P141" s="2"/>
-      <c r="Q141" s="3"/>
+      <c r="Q141" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="R141" s="3"/>
       <c r="S141" s="2"/>
-      <c r="T141" s="3"/>
+      <c r="T141" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="U141" s="3"/>
       <c r="V141" s="2"/>
-      <c r="W141" s="3"/>
+      <c r="W141" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="X141" s="3"/>
       <c r="Y141" s="2"/>
     </row>
     <row r="142" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142">
+        <v>8.89</v>
+      </c>
       <c r="D142" s="2"/>
+      <c r="E142" t="s">
+        <v>7</v>
+      </c>
+      <c r="F142">
+        <v>2.76</v>
+      </c>
       <c r="G142" s="2"/>
+      <c r="H142" t="s">
+        <v>7</v>
+      </c>
+      <c r="I142">
+        <v>1.82</v>
+      </c>
       <c r="J142" s="2"/>
+      <c r="K142" t="s">
+        <v>7</v>
+      </c>
+      <c r="L142">
+        <v>3.33</v>
+      </c>
       <c r="M142" s="2"/>
+      <c r="N142" t="s">
+        <v>7</v>
+      </c>
+      <c r="O142">
+        <v>3.02</v>
+      </c>
       <c r="P142" s="2"/>
+      <c r="Q142" t="s">
+        <v>7</v>
+      </c>
       <c r="S142" s="2"/>
+      <c r="T142" t="s">
+        <v>7</v>
+      </c>
       <c r="V142" s="2"/>
+      <c r="W142" t="s">
+        <v>7</v>
+      </c>
       <c r="Y142" s="2"/>
     </row>
     <row r="143" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
+      <c r="B143" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="3">
+        <v>7.8</v>
+      </c>
       <c r="D143" s="2"/>
-      <c r="E143" s="3"/>
-      <c r="F143" s="3"/>
+      <c r="E143" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F143" s="3">
+        <v>2.66</v>
+      </c>
       <c r="G143" s="2"/>
-      <c r="H143" s="3"/>
-      <c r="I143" s="3"/>
+      <c r="H143" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I143" s="3">
+        <v>1.92</v>
+      </c>
       <c r="J143" s="2"/>
-      <c r="K143" s="3"/>
-      <c r="L143" s="3"/>
+      <c r="K143" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L143" s="3">
+        <v>3.32</v>
+      </c>
       <c r="M143" s="2"/>
-      <c r="N143" s="3"/>
-      <c r="O143" s="3"/>
+      <c r="N143" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O143" s="3">
+        <v>3.01</v>
+      </c>
       <c r="P143" s="2"/>
-      <c r="Q143" s="3"/>
+      <c r="Q143" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="R143" s="3"/>
       <c r="S143" s="2"/>
-      <c r="T143" s="3"/>
+      <c r="T143" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="U143" s="3"/>
       <c r="V143" s="2"/>
-      <c r="W143" s="3"/>
+      <c r="W143" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="X143" s="3"/>
       <c r="Y143" s="2"/>
     </row>
     <row r="144" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
+      <c r="B144" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144">
+        <v>8.0500000000000007</v>
+      </c>
       <c r="D144" s="2"/>
+      <c r="E144" t="s">
+        <v>9</v>
+      </c>
+      <c r="F144">
+        <v>3</v>
+      </c>
       <c r="G144" s="2"/>
+      <c r="H144" t="s">
+        <v>9</v>
+      </c>
+      <c r="I144">
+        <v>1.93</v>
+      </c>
       <c r="J144" s="2"/>
+      <c r="K144" t="s">
+        <v>9</v>
+      </c>
+      <c r="L144">
+        <v>3.7</v>
+      </c>
       <c r="M144" s="2"/>
+      <c r="N144" t="s">
+        <v>9</v>
+      </c>
+      <c r="O144">
+        <v>3.33</v>
+      </c>
       <c r="P144" s="2"/>
+      <c r="Q144" t="s">
+        <v>9</v>
+      </c>
       <c r="S144" s="2"/>
+      <c r="T144" t="s">
+        <v>9</v>
+      </c>
       <c r="V144" s="2"/>
+      <c r="W144" t="s">
+        <v>9</v>
+      </c>
       <c r="Y144" s="2"/>
     </row>
     <row r="145" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
-      <c r="B145" s="3"/>
+      <c r="B145" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C145" s="3"/>
       <c r="D145" s="2"/>
-      <c r="E145" s="3"/>
+      <c r="E145" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="F145" s="3"/>
       <c r="G145" s="2"/>
-      <c r="H145" s="3"/>
+      <c r="H145" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="I145" s="3"/>
       <c r="J145" s="2"/>
-      <c r="K145" s="3"/>
+      <c r="K145" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="L145" s="3"/>
       <c r="M145" s="2"/>
-      <c r="N145" s="3"/>
+      <c r="N145" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="O145" s="3"/>
       <c r="P145" s="2"/>
-      <c r="Q145" s="3"/>
+      <c r="Q145" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="R145" s="3"/>
       <c r="S145" s="2"/>
-      <c r="T145" s="3"/>
+      <c r="T145" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="U145" s="3"/>
       <c r="V145" s="2"/>
-      <c r="W145" s="3"/>
+      <c r="W145" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="X145" s="3"/>
       <c r="Y145" s="2"/>
     </row>
     <row r="146" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
+      <c r="B146" t="s">
+        <v>11</v>
+      </c>
       <c r="D146" s="2"/>
+      <c r="E146" t="s">
+        <v>11</v>
+      </c>
       <c r="G146" s="2"/>
+      <c r="H146" t="s">
+        <v>11</v>
+      </c>
       <c r="J146" s="2"/>
+      <c r="K146" t="s">
+        <v>11</v>
+      </c>
       <c r="M146" s="2"/>
+      <c r="N146" t="s">
+        <v>11</v>
+      </c>
       <c r="P146" s="2"/>
+      <c r="Q146" t="s">
+        <v>11</v>
+      </c>
       <c r="S146" s="2"/>
+      <c r="T146" t="s">
+        <v>11</v>
+      </c>
       <c r="V146" s="2"/>
+      <c r="W146" t="s">
+        <v>11</v>
+      </c>
       <c r="Y146" s="2"/>
     </row>
     <row r="147" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A147" s="2"/>
-      <c r="B147" s="3"/>
+      <c r="B147" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C147" s="3"/>
       <c r="D147" s="2"/>
-      <c r="E147" s="3"/>
+      <c r="E147" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="F147" s="3"/>
       <c r="G147" s="2"/>
-      <c r="H147" s="3"/>
+      <c r="H147" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="I147" s="3"/>
       <c r="J147" s="2"/>
-      <c r="K147" s="3"/>
+      <c r="K147" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="L147" s="3"/>
       <c r="M147" s="2"/>
-      <c r="N147" s="3"/>
+      <c r="N147" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="O147" s="3"/>
       <c r="P147" s="2"/>
-      <c r="Q147" s="3"/>
+      <c r="Q147" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="R147" s="3"/>
       <c r="S147" s="2"/>
-      <c r="T147" s="3"/>
+      <c r="T147" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="U147" s="3"/>
       <c r="V147" s="2"/>
-      <c r="W147" s="3"/>
+      <c r="W147" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="X147" s="3"/>
       <c r="Y147" s="2"/>
     </row>
@@ -5833,7 +6226,9 @@
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
-      <c r="P148" s="2"/>
+      <c r="P148" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="Q148" s="2"/>
       <c r="R148" s="2"/>
       <c r="S148" s="2"/>
@@ -5843,6 +6238,11 @@
       <c r="W148" s="2"/>
       <c r="X148" s="2"/>
       <c r="Y148" s="2"/>
+    </row>
+    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="151" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A151" s="25"/>
@@ -6243,6 +6643,9 @@
       <c r="H159" t="s">
         <v>9</v>
       </c>
+      <c r="I159">
+        <v>2.7</v>
+      </c>
       <c r="J159" s="2"/>
       <c r="K159" t="s">
         <v>9</v>
@@ -7009,7 +7412,7 @@
         <v>15</v>
       </c>
       <c r="R179" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="181" spans="1:25" x14ac:dyDescent="0.2">
@@ -7234,7 +7637,9 @@
       <c r="H186" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I186" s="3"/>
+      <c r="I186" s="3">
+        <v>1.08</v>
+      </c>
       <c r="J186" s="2"/>
       <c r="K186" s="3" t="s">
         <v>5</v>
@@ -7604,12 +8009,12 @@
     </row>
     <row r="199" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="200" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -7638,8 +8043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC2FAD3-4A87-0A48-81B1-F7EE5876407F}">
   <dimension ref="A1:Y197"/>
   <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7815,8 +8220,8 @@
       <c r="E3" t="str">
         <v/>
       </c>
-      <c r="F3" t="str">
-        <v/>
+      <c r="F3">
+        <v>322</v>
       </c>
       <c r="G3" t="str">
         <v/>
@@ -8037,8 +8442,8 @@
       <c r="B6" t="str">
         <v/>
       </c>
-      <c r="C6">
-        <v>49.92</v>
+      <c r="C6" t="str">
+        <v/>
       </c>
       <c r="D6" t="str">
         <v/>
@@ -8046,8 +8451,8 @@
       <c r="E6" t="str">
         <v/>
       </c>
-      <c r="F6" t="str">
-        <v/>
+      <c r="F6">
+        <v>2.19</v>
       </c>
       <c r="G6" t="str">
         <v/>
@@ -8064,8 +8469,8 @@
       <c r="K6" t="str">
         <v/>
       </c>
-      <c r="L6" t="str">
-        <v/>
+      <c r="L6">
+        <v>2.2599999999999998</v>
       </c>
       <c r="M6" t="str">
         <v/>
@@ -8115,7 +8520,7 @@
         <v/>
       </c>
       <c r="C7">
-        <v>56.53</v>
+        <v>49.92</v>
       </c>
       <c r="D7" t="str">
         <v/>
@@ -8141,8 +8546,8 @@
       <c r="K7" t="str">
         <v/>
       </c>
-      <c r="L7">
-        <v>2.81</v>
+      <c r="L7" t="str">
+        <v/>
       </c>
       <c r="M7" t="str">
         <v/>
@@ -8192,7 +8597,7 @@
         <v/>
       </c>
       <c r="C8">
-        <v>50.1</v>
+        <v>56.53</v>
       </c>
       <c r="D8" t="str">
         <v/>
@@ -8200,8 +8605,8 @@
       <c r="E8" t="str">
         <v/>
       </c>
-      <c r="F8" t="str">
-        <v/>
+      <c r="F8">
+        <v>2.58</v>
       </c>
       <c r="G8" t="str">
         <v/>
@@ -8218,8 +8623,8 @@
       <c r="K8" t="str">
         <v/>
       </c>
-      <c r="L8">
-        <v>2.79</v>
+      <c r="L8" t="str">
+        <v/>
       </c>
       <c r="M8" t="str">
         <v/>
@@ -8268,8 +8673,8 @@
       <c r="B9" t="str">
         <v/>
       </c>
-      <c r="C9" t="str">
-        <v/>
+      <c r="C9">
+        <v>50.1</v>
       </c>
       <c r="D9" t="str">
         <v/>
@@ -8277,8 +8682,8 @@
       <c r="E9" t="str">
         <v/>
       </c>
-      <c r="F9" t="str">
-        <v/>
+      <c r="F9">
+        <v>2.46</v>
       </c>
       <c r="G9" t="str">
         <v/>
@@ -9432,8 +9837,8 @@
       <c r="E24" t="str">
         <v/>
       </c>
-      <c r="F24" t="str">
-        <v/>
+      <c r="F24">
+        <v>3.71</v>
       </c>
       <c r="G24" t="str">
         <v/>
@@ -9450,8 +9855,8 @@
       <c r="K24" t="str">
         <v/>
       </c>
-      <c r="L24" t="str">
-        <v/>
+      <c r="L24">
+        <v>3.46</v>
       </c>
       <c r="M24" t="str">
         <v/>
@@ -10039,8 +10444,8 @@
       <c r="B32" t="str">
         <v/>
       </c>
-      <c r="C32" t="str">
-        <v/>
+      <c r="C32">
+        <v>22</v>
       </c>
       <c r="D32" t="str">
         <v/>
@@ -10116,8 +10521,8 @@
       <c r="B33" t="str">
         <v/>
       </c>
-      <c r="C33" t="str">
-        <v/>
+      <c r="C33">
+        <v>0</v>
       </c>
       <c r="D33" t="str">
         <v/>
@@ -10125,8 +10530,8 @@
       <c r="E33" t="str">
         <v/>
       </c>
-      <c r="F33" t="str">
-        <v/>
+      <c r="F33">
+        <v>354</v>
       </c>
       <c r="G33" t="str">
         <v/>
@@ -10270,8 +10675,8 @@
       <c r="B35" t="str">
         <v/>
       </c>
-      <c r="C35" t="str">
-        <v/>
+      <c r="C35">
+        <v>25.13</v>
       </c>
       <c r="D35" t="str">
         <v/>
@@ -10279,8 +10684,8 @@
       <c r="E35" t="str">
         <v/>
       </c>
-      <c r="F35" t="str">
-        <v/>
+      <c r="F35">
+        <v>1.42</v>
       </c>
       <c r="G35" t="str">
         <v/>
@@ -10347,8 +10752,8 @@
       <c r="B36" t="str">
         <v/>
       </c>
-      <c r="C36" t="str">
-        <v/>
+      <c r="C36">
+        <v>21.35</v>
       </c>
       <c r="D36" t="str">
         <v/>
@@ -10356,8 +10761,8 @@
       <c r="E36" t="str">
         <v/>
       </c>
-      <c r="F36" t="str">
-        <v/>
+      <c r="F36">
+        <v>1.01</v>
       </c>
       <c r="G36" t="str">
         <v/>
@@ -10424,8 +10829,8 @@
       <c r="B37" t="str">
         <v/>
       </c>
-      <c r="C37" t="str">
-        <v/>
+      <c r="C37">
+        <v>22.15</v>
       </c>
       <c r="D37" t="str">
         <v/>
@@ -10433,8 +10838,8 @@
       <c r="E37" t="str">
         <v/>
       </c>
-      <c r="F37" t="str">
-        <v/>
+      <c r="F37">
+        <v>1.0900000000000001</v>
       </c>
       <c r="G37" t="str">
         <v/>
@@ -10501,8 +10906,8 @@
       <c r="B38" t="str">
         <v/>
       </c>
-      <c r="C38" t="str">
-        <v/>
+      <c r="C38">
+        <v>20.190000000000001</v>
       </c>
       <c r="D38" t="str">
         <v/>
@@ -10510,8 +10915,8 @@
       <c r="E38" t="str">
         <v/>
       </c>
-      <c r="F38" t="str">
-        <v/>
+      <c r="F38">
+        <v>1.08</v>
       </c>
       <c r="G38" t="str">
         <v/>
@@ -10587,8 +10992,8 @@
       <c r="E39" t="str">
         <v/>
       </c>
-      <c r="F39" t="str">
-        <v/>
+      <c r="F39">
+        <v>1.1000000000000001</v>
       </c>
       <c r="G39" t="str">
         <v/>
@@ -10655,8 +11060,8 @@
       <c r="B40" t="str">
         <v/>
       </c>
-      <c r="C40" t="str">
-        <v/>
+      <c r="C40">
+        <v>19.78</v>
       </c>
       <c r="D40" t="str">
         <v/>
@@ -10664,8 +11069,8 @@
       <c r="E40" t="str">
         <v/>
       </c>
-      <c r="F40" t="str">
-        <v/>
+      <c r="F40">
+        <v>1.27</v>
       </c>
       <c r="G40" t="str">
         <v/>
@@ -11425,8 +11830,8 @@
       <c r="B50" t="str">
         <v/>
       </c>
-      <c r="C50">
-        <v>9.2799999999999994</v>
+      <c r="C50" t="str">
+        <v/>
       </c>
       <c r="D50" t="str">
         <v/>
@@ -12453,8 +12858,8 @@
       <c r="K63" t="str">
         <v/>
       </c>
-      <c r="L63" t="str">
-        <v/>
+      <c r="L63">
+        <v>-354</v>
       </c>
       <c r="M63" t="str">
         <v/>
@@ -12607,8 +13012,8 @@
       <c r="K65" t="str">
         <v/>
       </c>
-      <c r="L65" t="str">
-        <v/>
+      <c r="L65">
+        <v>1.61</v>
       </c>
       <c r="M65" t="str">
         <v/>
@@ -12625,8 +13030,8 @@
       <c r="Q65" t="str">
         <v/>
       </c>
-      <c r="R65" t="str">
-        <v/>
+      <c r="R65">
+        <v>1.36</v>
       </c>
       <c r="S65" t="str">
         <v/>
@@ -12684,8 +13089,8 @@
       <c r="K66" t="str">
         <v/>
       </c>
-      <c r="L66" t="str">
-        <v/>
+      <c r="L66">
+        <v>1.97</v>
       </c>
       <c r="M66" t="str">
         <v/>
@@ -12702,8 +13107,8 @@
       <c r="Q66" t="str">
         <v/>
       </c>
-      <c r="R66" t="str">
-        <v/>
+      <c r="R66">
+        <v>2.0099999999999998</v>
       </c>
       <c r="S66" t="str">
         <v/>
@@ -12761,8 +13166,8 @@
       <c r="K67" t="str">
         <v/>
       </c>
-      <c r="L67" t="str">
-        <v/>
+      <c r="L67">
+        <v>1.65</v>
       </c>
       <c r="M67" t="str">
         <v/>
@@ -12838,8 +13243,8 @@
       <c r="K68" t="str">
         <v/>
       </c>
-      <c r="L68" t="str">
-        <v/>
+      <c r="L68">
+        <v>1.83</v>
       </c>
       <c r="M68" t="str">
         <v/>
@@ -12915,8 +13320,8 @@
       <c r="K69" t="str">
         <v/>
       </c>
-      <c r="L69" t="str">
-        <v/>
+      <c r="L69">
+        <v>1.83</v>
       </c>
       <c r="M69" t="str">
         <v/>
@@ -13504,8 +13909,8 @@
       <c r="B77" t="str">
         <v/>
       </c>
-      <c r="C77">
-        <v>22</v>
+      <c r="C77" t="str">
+        <v/>
       </c>
       <c r="D77" t="str">
         <v/>
@@ -13581,8 +13986,8 @@
       <c r="B78" t="str">
         <v/>
       </c>
-      <c r="C78">
-        <v>0</v>
+      <c r="C78" t="str">
+        <v/>
       </c>
       <c r="D78" t="str">
         <v/>
@@ -13590,8 +13995,8 @@
       <c r="E78" t="str">
         <v/>
       </c>
-      <c r="F78">
-        <v>-354</v>
+      <c r="F78" t="str">
+        <v/>
       </c>
       <c r="G78" t="str">
         <v/>
@@ -13599,8 +14004,8 @@
       <c r="H78" t="str">
         <v/>
       </c>
-      <c r="I78">
-        <v>354</v>
+      <c r="I78" t="str">
+        <v/>
       </c>
       <c r="J78" t="str">
         <v/>
@@ -13608,8 +14013,8 @@
       <c r="K78" t="str">
         <v/>
       </c>
-      <c r="L78">
-        <v>-354</v>
+      <c r="L78" t="str">
+        <v/>
       </c>
       <c r="M78" t="str">
         <v/>
@@ -13617,8 +14022,8 @@
       <c r="N78" t="str">
         <v/>
       </c>
-      <c r="O78">
-        <v>354</v>
+      <c r="O78" t="str">
+        <v/>
       </c>
       <c r="P78" t="str">
         <v/>
@@ -13626,8 +14031,8 @@
       <c r="Q78" t="str">
         <v/>
       </c>
-      <c r="R78">
-        <v>-354</v>
+      <c r="R78" t="str">
+        <v/>
       </c>
       <c r="S78" t="str">
         <v/>
@@ -13635,8 +14040,8 @@
       <c r="T78" t="str">
         <v/>
       </c>
-      <c r="U78">
-        <v>354</v>
+      <c r="U78" t="str">
+        <v/>
       </c>
       <c r="V78" t="str">
         <v/>
@@ -13644,8 +14049,8 @@
       <c r="W78" t="str">
         <v/>
       </c>
-      <c r="X78">
-        <v>-354</v>
+      <c r="X78" t="str">
+        <v/>
       </c>
       <c r="Y78" t="str">
         <v/>
@@ -13735,8 +14140,8 @@
       <c r="B80" t="str">
         <v/>
       </c>
-      <c r="C80">
-        <v>15.47</v>
+      <c r="C80" t="str">
+        <v/>
       </c>
       <c r="D80" t="str">
         <v/>
@@ -13744,8 +14149,8 @@
       <c r="E80" t="str">
         <v/>
       </c>
-      <c r="F80">
-        <v>4.71</v>
+      <c r="F80" t="str">
+        <v/>
       </c>
       <c r="G80" t="str">
         <v/>
@@ -13753,8 +14158,8 @@
       <c r="H80" t="str">
         <v/>
       </c>
-      <c r="I80">
-        <v>2.75</v>
+      <c r="I80" t="str">
+        <v/>
       </c>
       <c r="J80" t="str">
         <v/>
@@ -13762,8 +14167,8 @@
       <c r="K80" t="str">
         <v/>
       </c>
-      <c r="L80">
-        <v>3.47</v>
+      <c r="L80" t="str">
+        <v/>
       </c>
       <c r="M80" t="str">
         <v/>
@@ -13771,8 +14176,8 @@
       <c r="N80" t="str">
         <v/>
       </c>
-      <c r="O80">
-        <v>2.25</v>
+      <c r="O80" t="str">
+        <v/>
       </c>
       <c r="P80" t="str">
         <v/>
@@ -13780,8 +14185,8 @@
       <c r="Q80" t="str">
         <v/>
       </c>
-      <c r="R80">
-        <v>3.08</v>
+      <c r="R80" t="str">
+        <v/>
       </c>
       <c r="S80" t="str">
         <v/>
@@ -13789,8 +14194,8 @@
       <c r="T80" t="str">
         <v/>
       </c>
-      <c r="U80">
-        <v>2.35</v>
+      <c r="U80" t="str">
+        <v/>
       </c>
       <c r="V80" t="str">
         <v/>
@@ -13798,8 +14203,8 @@
       <c r="W80" t="str">
         <v/>
       </c>
-      <c r="X80">
-        <v>3.48</v>
+      <c r="X80" t="str">
+        <v/>
       </c>
       <c r="Y80" t="str">
         <v/>
@@ -13812,8 +14217,8 @@
       <c r="B81" t="str">
         <v/>
       </c>
-      <c r="C81">
-        <v>14.66</v>
+      <c r="C81" t="str">
+        <v/>
       </c>
       <c r="D81" t="str">
         <v/>
@@ -13821,8 +14226,8 @@
       <c r="E81" t="str">
         <v/>
       </c>
-      <c r="F81">
-        <v>4.74</v>
+      <c r="F81" t="str">
+        <v/>
       </c>
       <c r="G81" t="str">
         <v/>
@@ -13830,8 +14235,8 @@
       <c r="H81" t="str">
         <v/>
       </c>
-      <c r="I81">
-        <v>2.84</v>
+      <c r="I81" t="str">
+        <v/>
       </c>
       <c r="J81" t="str">
         <v/>
@@ -13839,8 +14244,8 @@
       <c r="K81" t="str">
         <v/>
       </c>
-      <c r="L81">
-        <v>3.1</v>
+      <c r="L81" t="str">
+        <v/>
       </c>
       <c r="M81" t="str">
         <v/>
@@ -13848,8 +14253,8 @@
       <c r="N81" t="str">
         <v/>
       </c>
-      <c r="O81">
-        <v>2.1</v>
+      <c r="O81" t="str">
+        <v/>
       </c>
       <c r="P81" t="str">
         <v/>
@@ -13857,8 +14262,8 @@
       <c r="Q81" t="str">
         <v/>
       </c>
-      <c r="R81">
-        <v>3.17</v>
+      <c r="R81" t="str">
+        <v/>
       </c>
       <c r="S81" t="str">
         <v/>
@@ -13866,8 +14271,8 @@
       <c r="T81" t="str">
         <v/>
       </c>
-      <c r="U81">
-        <v>2.38</v>
+      <c r="U81" t="str">
+        <v/>
       </c>
       <c r="V81" t="str">
         <v/>
@@ -13875,8 +14280,8 @@
       <c r="W81" t="str">
         <v/>
       </c>
-      <c r="X81">
-        <v>3.25</v>
+      <c r="X81" t="str">
+        <v/>
       </c>
       <c r="Y81" t="str">
         <v/>
@@ -13889,8 +14294,8 @@
       <c r="B82" t="str">
         <v/>
       </c>
-      <c r="C82">
-        <v>16.649999999999999</v>
+      <c r="C82" t="str">
+        <v/>
       </c>
       <c r="D82" t="str">
         <v/>
@@ -13898,8 +14303,8 @@
       <c r="E82" t="str">
         <v/>
       </c>
-      <c r="F82">
-        <v>4.78</v>
+      <c r="F82" t="str">
+        <v/>
       </c>
       <c r="G82" t="str">
         <v/>
@@ -13907,8 +14312,8 @@
       <c r="H82" t="str">
         <v/>
       </c>
-      <c r="I82">
-        <v>2.88</v>
+      <c r="I82" t="str">
+        <v/>
       </c>
       <c r="J82" t="str">
         <v/>
@@ -13916,8 +14321,8 @@
       <c r="K82" t="str">
         <v/>
       </c>
-      <c r="L82">
-        <v>3.42</v>
+      <c r="L82" t="str">
+        <v/>
       </c>
       <c r="M82" t="str">
         <v/>
@@ -13925,8 +14330,8 @@
       <c r="N82" t="str">
         <v/>
       </c>
-      <c r="O82">
-        <v>2.08</v>
+      <c r="O82" t="str">
+        <v/>
       </c>
       <c r="P82" t="str">
         <v/>
@@ -13934,8 +14339,8 @@
       <c r="Q82" t="str">
         <v/>
       </c>
-      <c r="R82">
-        <v>3.44</v>
+      <c r="R82" t="str">
+        <v/>
       </c>
       <c r="S82" t="str">
         <v/>
@@ -13943,8 +14348,8 @@
       <c r="T82" t="str">
         <v/>
       </c>
-      <c r="U82">
-        <v>2.54</v>
+      <c r="U82" t="str">
+        <v/>
       </c>
       <c r="V82" t="str">
         <v/>
@@ -13952,8 +14357,8 @@
       <c r="W82" t="str">
         <v/>
       </c>
-      <c r="X82">
-        <v>3.07</v>
+      <c r="X82" t="str">
+        <v/>
       </c>
       <c r="Y82" t="str">
         <v/>
@@ -13966,8 +14371,8 @@
       <c r="B83" t="str">
         <v/>
       </c>
-      <c r="C83">
-        <v>15.77</v>
+      <c r="C83" t="str">
+        <v/>
       </c>
       <c r="D83" t="str">
         <v/>
@@ -13975,8 +14380,8 @@
       <c r="E83" t="str">
         <v/>
       </c>
-      <c r="F83">
-        <v>4.62</v>
+      <c r="F83" t="str">
+        <v/>
       </c>
       <c r="G83" t="str">
         <v/>
@@ -13984,8 +14389,8 @@
       <c r="H83" t="str">
         <v/>
       </c>
-      <c r="I83">
-        <v>2.85</v>
+      <c r="I83" t="str">
+        <v/>
       </c>
       <c r="J83" t="str">
         <v/>
@@ -13993,8 +14398,8 @@
       <c r="K83" t="str">
         <v/>
       </c>
-      <c r="L83">
-        <v>3.4</v>
+      <c r="L83" t="str">
+        <v/>
       </c>
       <c r="M83" t="str">
         <v/>
@@ -14002,8 +14407,8 @@
       <c r="N83" t="str">
         <v/>
       </c>
-      <c r="O83">
-        <v>2.54</v>
+      <c r="O83" t="str">
+        <v/>
       </c>
       <c r="P83" t="str">
         <v/>
@@ -14011,8 +14416,8 @@
       <c r="Q83" t="str">
         <v/>
       </c>
-      <c r="R83">
-        <v>3.2</v>
+      <c r="R83" t="str">
+        <v/>
       </c>
       <c r="S83" t="str">
         <v/>
@@ -14020,8 +14425,8 @@
       <c r="T83" t="str">
         <v/>
       </c>
-      <c r="U83">
-        <v>2.3199999999999998</v>
+      <c r="U83" t="str">
+        <v/>
       </c>
       <c r="V83" t="str">
         <v/>
@@ -14029,8 +14434,8 @@
       <c r="W83" t="str">
         <v/>
       </c>
-      <c r="X83">
-        <v>3.54</v>
+      <c r="X83" t="str">
+        <v/>
       </c>
       <c r="Y83" t="str">
         <v/>
@@ -14043,8 +14448,8 @@
       <c r="B84" t="str">
         <v/>
       </c>
-      <c r="C84">
-        <v>15.45</v>
+      <c r="C84" t="str">
+        <v/>
       </c>
       <c r="D84" t="str">
         <v/>
@@ -14052,8 +14457,8 @@
       <c r="E84" t="str">
         <v/>
       </c>
-      <c r="F84">
-        <v>4.8600000000000003</v>
+      <c r="F84" t="str">
+        <v/>
       </c>
       <c r="G84" t="str">
         <v/>
@@ -14061,8 +14466,8 @@
       <c r="H84" t="str">
         <v/>
       </c>
-      <c r="I84">
-        <v>2.95</v>
+      <c r="I84" t="str">
+        <v/>
       </c>
       <c r="J84" t="str">
         <v/>
@@ -14070,8 +14475,8 @@
       <c r="K84" t="str">
         <v/>
       </c>
-      <c r="L84">
-        <v>3.29</v>
+      <c r="L84" t="str">
+        <v/>
       </c>
       <c r="M84" t="str">
         <v/>
@@ -14079,8 +14484,8 @@
       <c r="N84" t="str">
         <v/>
       </c>
-      <c r="O84">
-        <v>2.4700000000000002</v>
+      <c r="O84" t="str">
+        <v/>
       </c>
       <c r="P84" t="str">
         <v/>
@@ -14088,8 +14493,8 @@
       <c r="Q84" t="str">
         <v/>
       </c>
-      <c r="R84">
-        <v>3.18</v>
+      <c r="R84" t="str">
+        <v/>
       </c>
       <c r="S84" t="str">
         <v/>
@@ -14097,8 +14502,8 @@
       <c r="T84" t="str">
         <v/>
       </c>
-      <c r="U84">
-        <v>2.19</v>
+      <c r="U84" t="str">
+        <v/>
       </c>
       <c r="V84" t="str">
         <v/>
@@ -14106,8 +14511,8 @@
       <c r="W84" t="str">
         <v/>
       </c>
-      <c r="X84">
-        <v>3.43</v>
+      <c r="X84" t="str">
+        <v/>
       </c>
       <c r="Y84" t="str">
         <v/>
@@ -15003,8 +15408,8 @@
       <c r="N96" t="str">
         <v/>
       </c>
-      <c r="O96" t="str">
-        <v/>
+      <c r="O96">
+        <v>2.98</v>
       </c>
       <c r="P96" t="str">
         <v/>
@@ -15814,8 +16219,8 @@
       <c r="B107" t="str">
         <v/>
       </c>
-      <c r="C107" t="str">
-        <v/>
+      <c r="C107">
+        <v>23</v>
       </c>
       <c r="D107" t="str">
         <v/>
@@ -15891,8 +16296,8 @@
       <c r="B108" t="str">
         <v/>
       </c>
-      <c r="C108" t="str">
-        <v/>
+      <c r="C108">
+        <v>0</v>
       </c>
       <c r="D108" t="str">
         <v/>
@@ -15900,8 +16305,8 @@
       <c r="E108" t="str">
         <v/>
       </c>
-      <c r="F108" t="str">
-        <v/>
+      <c r="F108">
+        <v>-375</v>
       </c>
       <c r="G108" t="str">
         <v/>
@@ -15909,8 +16314,8 @@
       <c r="H108" t="str">
         <v/>
       </c>
-      <c r="I108" t="str">
-        <v/>
+      <c r="I108">
+        <v>375</v>
       </c>
       <c r="J108" t="str">
         <v/>
@@ -15918,8 +16323,8 @@
       <c r="K108" t="str">
         <v/>
       </c>
-      <c r="L108" t="str">
-        <v/>
+      <c r="L108">
+        <v>-375</v>
       </c>
       <c r="M108" t="str">
         <v/>
@@ -15927,8 +16332,8 @@
       <c r="N108" t="str">
         <v/>
       </c>
-      <c r="O108" t="str">
-        <v/>
+      <c r="O108">
+        <v>375</v>
       </c>
       <c r="P108" t="str">
         <v/>
@@ -15936,8 +16341,8 @@
       <c r="Q108" t="str">
         <v/>
       </c>
-      <c r="R108" t="str">
-        <v/>
+      <c r="R108">
+        <v>-375</v>
       </c>
       <c r="S108" t="str">
         <v/>
@@ -15945,8 +16350,8 @@
       <c r="T108" t="str">
         <v/>
       </c>
-      <c r="U108" t="str">
-        <v/>
+      <c r="U108">
+        <v>375</v>
       </c>
       <c r="V108" t="str">
         <v/>
@@ -15954,8 +16359,8 @@
       <c r="W108" t="str">
         <v/>
       </c>
-      <c r="X108" t="str">
-        <v/>
+      <c r="X108">
+        <v>-375</v>
       </c>
       <c r="Y108" t="str">
         <v/>
@@ -16045,8 +16450,8 @@
       <c r="B110" t="str">
         <v/>
       </c>
-      <c r="C110" t="str">
-        <v/>
+      <c r="C110">
+        <v>11.17</v>
       </c>
       <c r="D110" t="str">
         <v/>
@@ -16054,8 +16459,8 @@
       <c r="E110" t="str">
         <v/>
       </c>
-      <c r="F110" t="str">
-        <v/>
+      <c r="F110">
+        <v>1.73</v>
       </c>
       <c r="G110" t="str">
         <v/>
@@ -16063,8 +16468,8 @@
       <c r="H110" t="str">
         <v/>
       </c>
-      <c r="I110" t="str">
-        <v/>
+      <c r="I110">
+        <v>1.53</v>
       </c>
       <c r="J110" t="str">
         <v/>
@@ -16072,8 +16477,8 @@
       <c r="K110" t="str">
         <v/>
       </c>
-      <c r="L110" t="str">
-        <v/>
+      <c r="L110">
+        <v>1.87</v>
       </c>
       <c r="M110" t="str">
         <v/>
@@ -16081,8 +16486,8 @@
       <c r="N110" t="str">
         <v/>
       </c>
-      <c r="O110" t="str">
-        <v/>
+      <c r="O110">
+        <v>1.45</v>
       </c>
       <c r="P110" t="str">
         <v/>
@@ -16090,8 +16495,8 @@
       <c r="Q110" t="str">
         <v/>
       </c>
-      <c r="R110" t="str">
-        <v/>
+      <c r="R110">
+        <v>1.75</v>
       </c>
       <c r="S110" t="str">
         <v/>
@@ -16099,8 +16504,8 @@
       <c r="T110" t="str">
         <v/>
       </c>
-      <c r="U110" t="str">
-        <v/>
+      <c r="U110">
+        <v>1.38</v>
       </c>
       <c r="V110" t="str">
         <v/>
@@ -16108,8 +16513,8 @@
       <c r="W110" t="str">
         <v/>
       </c>
-      <c r="X110" t="str">
-        <v/>
+      <c r="X110">
+        <v>1.5</v>
       </c>
       <c r="Y110" t="str">
         <v/>
@@ -16122,8 +16527,8 @@
       <c r="B111" t="str">
         <v/>
       </c>
-      <c r="C111" t="str">
-        <v/>
+      <c r="C111">
+        <v>10.75</v>
       </c>
       <c r="D111" t="str">
         <v/>
@@ -16131,8 +16536,8 @@
       <c r="E111" t="str">
         <v/>
       </c>
-      <c r="F111" t="str">
-        <v/>
+      <c r="F111">
+        <v>1.74</v>
       </c>
       <c r="G111" t="str">
         <v/>
@@ -16140,8 +16545,8 @@
       <c r="H111" t="str">
         <v/>
       </c>
-      <c r="I111" t="str">
-        <v/>
+      <c r="I111">
+        <v>1.37</v>
       </c>
       <c r="J111" t="str">
         <v/>
@@ -16149,8 +16554,8 @@
       <c r="K111" t="str">
         <v/>
       </c>
-      <c r="L111" t="str">
-        <v/>
+      <c r="L111">
+        <v>1.65</v>
       </c>
       <c r="M111" t="str">
         <v/>
@@ -16158,8 +16563,8 @@
       <c r="N111" t="str">
         <v/>
       </c>
-      <c r="O111" t="str">
-        <v/>
+      <c r="O111">
+        <v>1.37</v>
       </c>
       <c r="P111" t="str">
         <v/>
@@ -16167,8 +16572,8 @@
       <c r="Q111" t="str">
         <v/>
       </c>
-      <c r="R111" t="str">
-        <v/>
+      <c r="R111">
+        <v>1.78</v>
       </c>
       <c r="S111" t="str">
         <v/>
@@ -16176,8 +16581,8 @@
       <c r="T111" t="str">
         <v/>
       </c>
-      <c r="U111" t="str">
-        <v/>
+      <c r="U111">
+        <v>1.2</v>
       </c>
       <c r="V111" t="str">
         <v/>
@@ -16185,8 +16590,8 @@
       <c r="W111" t="str">
         <v/>
       </c>
-      <c r="X111" t="str">
-        <v/>
+      <c r="X111">
+        <v>1.48</v>
       </c>
       <c r="Y111" t="str">
         <v/>
@@ -16199,8 +16604,8 @@
       <c r="B112" t="str">
         <v/>
       </c>
-      <c r="C112" t="str">
-        <v/>
+      <c r="C112">
+        <v>11.83</v>
       </c>
       <c r="D112" t="str">
         <v/>
@@ -16208,8 +16613,8 @@
       <c r="E112" t="str">
         <v/>
       </c>
-      <c r="F112" t="str">
-        <v/>
+      <c r="F112">
+        <v>1.7</v>
       </c>
       <c r="G112" t="str">
         <v/>
@@ -16217,8 +16622,8 @@
       <c r="H112" t="str">
         <v/>
       </c>
-      <c r="I112" t="str">
-        <v/>
+      <c r="I112">
+        <v>1.22</v>
       </c>
       <c r="J112" t="str">
         <v/>
@@ -16226,8 +16631,8 @@
       <c r="K112" t="str">
         <v/>
       </c>
-      <c r="L112" t="str">
-        <v/>
+      <c r="L112">
+        <v>1.62</v>
       </c>
       <c r="M112" t="str">
         <v/>
@@ -16235,8 +16640,8 @@
       <c r="N112" t="str">
         <v/>
       </c>
-      <c r="O112" t="str">
-        <v/>
+      <c r="O112">
+        <v>1.33</v>
       </c>
       <c r="P112" t="str">
         <v/>
@@ -16244,8 +16649,8 @@
       <c r="Q112" t="str">
         <v/>
       </c>
-      <c r="R112" t="str">
-        <v/>
+      <c r="R112">
+        <v>1.76</v>
       </c>
       <c r="S112" t="str">
         <v/>
@@ -16253,8 +16658,8 @@
       <c r="T112" t="str">
         <v/>
       </c>
-      <c r="U112" t="str">
-        <v/>
+      <c r="U112">
+        <v>1.42</v>
       </c>
       <c r="V112" t="str">
         <v/>
@@ -16262,8 +16667,8 @@
       <c r="W112" t="str">
         <v/>
       </c>
-      <c r="X112" t="str">
-        <v/>
+      <c r="X112">
+        <v>1.59</v>
       </c>
       <c r="Y112" t="str">
         <v/>
@@ -16276,8 +16681,8 @@
       <c r="B113" t="str">
         <v/>
       </c>
-      <c r="C113" t="str">
-        <v/>
+      <c r="C113">
+        <v>12.03</v>
       </c>
       <c r="D113" t="str">
         <v/>
@@ -16285,8 +16690,8 @@
       <c r="E113" t="str">
         <v/>
       </c>
-      <c r="F113" t="str">
-        <v/>
+      <c r="F113">
+        <v>1.74</v>
       </c>
       <c r="G113" t="str">
         <v/>
@@ -16294,8 +16699,8 @@
       <c r="H113" t="str">
         <v/>
       </c>
-      <c r="I113" t="str">
-        <v/>
+      <c r="I113">
+        <v>1.3</v>
       </c>
       <c r="J113" t="str">
         <v/>
@@ -16303,8 +16708,8 @@
       <c r="K113" t="str">
         <v/>
       </c>
-      <c r="L113" t="str">
-        <v/>
+      <c r="L113">
+        <v>1.73</v>
       </c>
       <c r="M113" t="str">
         <v/>
@@ -16312,8 +16717,8 @@
       <c r="N113" t="str">
         <v/>
       </c>
-      <c r="O113" t="str">
-        <v/>
+      <c r="O113">
+        <v>1.62</v>
       </c>
       <c r="P113" t="str">
         <v/>
@@ -16321,8 +16726,8 @@
       <c r="Q113" t="str">
         <v/>
       </c>
-      <c r="R113" t="str">
-        <v/>
+      <c r="R113">
+        <v>1.65</v>
       </c>
       <c r="S113" t="str">
         <v/>
@@ -16330,8 +16735,8 @@
       <c r="T113" t="str">
         <v/>
       </c>
-      <c r="U113" t="str">
-        <v/>
+      <c r="U113">
+        <v>1.37</v>
       </c>
       <c r="V113" t="str">
         <v/>
@@ -16339,8 +16744,8 @@
       <c r="W113" t="str">
         <v/>
       </c>
-      <c r="X113" t="str">
-        <v/>
+      <c r="X113">
+        <v>1.52</v>
       </c>
       <c r="Y113" t="str">
         <v/>
@@ -16353,8 +16758,8 @@
       <c r="B114" t="str">
         <v/>
       </c>
-      <c r="C114" t="str">
-        <v/>
+      <c r="C114">
+        <v>11.09</v>
       </c>
       <c r="D114" t="str">
         <v/>
@@ -16362,8 +16767,8 @@
       <c r="E114" t="str">
         <v/>
       </c>
-      <c r="F114" t="str">
-        <v/>
+      <c r="F114">
+        <v>1.71</v>
       </c>
       <c r="G114" t="str">
         <v/>
@@ -16371,8 +16776,8 @@
       <c r="H114" t="str">
         <v/>
       </c>
-      <c r="I114" t="str">
-        <v/>
+      <c r="I114">
+        <v>1.31</v>
       </c>
       <c r="J114" t="str">
         <v/>
@@ -16380,8 +16785,8 @@
       <c r="K114" t="str">
         <v/>
       </c>
-      <c r="L114" t="str">
-        <v/>
+      <c r="L114">
+        <v>1.87</v>
       </c>
       <c r="M114" t="str">
         <v/>
@@ -16389,8 +16794,8 @@
       <c r="N114" t="str">
         <v/>
       </c>
-      <c r="O114" t="str">
-        <v/>
+      <c r="O114">
+        <v>1.28</v>
       </c>
       <c r="P114" t="str">
         <v/>
@@ -16398,8 +16803,8 @@
       <c r="Q114" t="str">
         <v/>
       </c>
-      <c r="R114" t="str">
-        <v/>
+      <c r="R114">
+        <v>1.79</v>
       </c>
       <c r="S114" t="str">
         <v/>
@@ -16407,8 +16812,8 @@
       <c r="T114" t="str">
         <v/>
       </c>
-      <c r="U114" t="str">
-        <v/>
+      <c r="U114">
+        <v>1.46</v>
       </c>
       <c r="V114" t="str">
         <v/>
@@ -16416,8 +16821,8 @@
       <c r="W114" t="str">
         <v/>
       </c>
-      <c r="X114" t="str">
-        <v/>
+      <c r="X114">
+        <v>1.62</v>
       </c>
       <c r="Y114" t="str">
         <v/>
@@ -17091,8 +17496,8 @@
       <c r="Q123" t="str">
         <v/>
       </c>
-      <c r="R123" t="str">
-        <v/>
+      <c r="R123">
+        <v>-375</v>
       </c>
       <c r="S123" t="str">
         <v/>
@@ -17100,8 +17505,8 @@
       <c r="T123" t="str">
         <v/>
       </c>
-      <c r="U123" t="str">
-        <v/>
+      <c r="U123">
+        <v>375</v>
       </c>
       <c r="V123" t="str">
         <v/>
@@ -17109,8 +17514,8 @@
       <c r="W123" t="str">
         <v/>
       </c>
-      <c r="X123" t="str">
-        <v/>
+      <c r="X123">
+        <v>-375</v>
       </c>
       <c r="Y123" t="str">
         <v/>
@@ -17209,8 +17614,8 @@
       <c r="E125" t="str">
         <v/>
       </c>
-      <c r="F125" t="str">
-        <v/>
+      <c r="F125">
+        <v>1.88</v>
       </c>
       <c r="G125" t="str">
         <v/>
@@ -17245,8 +17650,8 @@
       <c r="Q125" t="str">
         <v/>
       </c>
-      <c r="R125" t="str">
-        <v/>
+      <c r="R125">
+        <v>1.48</v>
       </c>
       <c r="S125" t="str">
         <v/>
@@ -17254,8 +17659,8 @@
       <c r="T125" t="str">
         <v/>
       </c>
-      <c r="U125" t="str">
-        <v/>
+      <c r="U125">
+        <v>1.39</v>
       </c>
       <c r="V125" t="str">
         <v/>
@@ -17263,8 +17668,8 @@
       <c r="W125" t="str">
         <v/>
       </c>
-      <c r="X125" t="str">
-        <v/>
+      <c r="X125">
+        <v>1.81</v>
       </c>
       <c r="Y125" t="str">
         <v/>
@@ -17322,8 +17727,8 @@
       <c r="Q126" t="str">
         <v/>
       </c>
-      <c r="R126" t="str">
-        <v/>
+      <c r="R126">
+        <v>2.11</v>
       </c>
       <c r="S126" t="str">
         <v/>
@@ -17331,8 +17736,8 @@
       <c r="T126" t="str">
         <v/>
       </c>
-      <c r="U126" t="str">
-        <v/>
+      <c r="U126">
+        <v>1.27</v>
       </c>
       <c r="V126" t="str">
         <v/>
@@ -17340,8 +17745,8 @@
       <c r="W126" t="str">
         <v/>
       </c>
-      <c r="X126" t="str">
-        <v/>
+      <c r="X126">
+        <v>1.67</v>
       </c>
       <c r="Y126" t="str">
         <v/>
@@ -17381,8 +17786,8 @@
       <c r="K127" t="str">
         <v/>
       </c>
-      <c r="L127" t="str">
-        <v/>
+      <c r="L127">
+        <v>2.04</v>
       </c>
       <c r="M127" t="str">
         <v/>
@@ -17399,8 +17804,8 @@
       <c r="Q127" t="str">
         <v/>
       </c>
-      <c r="R127" t="str">
-        <v/>
+      <c r="R127">
+        <v>1.75</v>
       </c>
       <c r="S127" t="str">
         <v/>
@@ -17408,8 +17813,8 @@
       <c r="T127" t="str">
         <v/>
       </c>
-      <c r="U127" t="str">
-        <v/>
+      <c r="U127">
+        <v>1.29</v>
       </c>
       <c r="V127" t="str">
         <v/>
@@ -17417,8 +17822,8 @@
       <c r="W127" t="str">
         <v/>
       </c>
-      <c r="X127" t="str">
-        <v/>
+      <c r="X127">
+        <v>1.6</v>
       </c>
       <c r="Y127" t="str">
         <v/>
@@ -17476,8 +17881,8 @@
       <c r="Q128" t="str">
         <v/>
       </c>
-      <c r="R128" t="str">
-        <v/>
+      <c r="R128">
+        <v>1.86</v>
       </c>
       <c r="S128" t="str">
         <v/>
@@ -17485,8 +17890,8 @@
       <c r="T128" t="str">
         <v/>
       </c>
-      <c r="U128" t="str">
-        <v/>
+      <c r="U128">
+        <v>1.37</v>
       </c>
       <c r="V128" t="str">
         <v/>
@@ -17494,8 +17899,8 @@
       <c r="W128" t="str">
         <v/>
       </c>
-      <c r="X128" t="str">
-        <v/>
+      <c r="X128">
+        <v>1.55</v>
       </c>
       <c r="Y128" t="str">
         <v/>
@@ -17553,8 +17958,8 @@
       <c r="Q129" t="str">
         <v/>
       </c>
-      <c r="R129" t="str">
-        <v/>
+      <c r="R129">
+        <v>1.6</v>
       </c>
       <c r="S129" t="str">
         <v/>
@@ -17562,8 +17967,8 @@
       <c r="T129" t="str">
         <v/>
       </c>
-      <c r="U129" t="str">
-        <v/>
+      <c r="U129">
+        <v>1.38</v>
       </c>
       <c r="V129" t="str">
         <v/>
@@ -17571,8 +17976,8 @@
       <c r="W129" t="str">
         <v/>
       </c>
-      <c r="X129" t="str">
-        <v/>
+      <c r="X129">
+        <v>1.52</v>
       </c>
       <c r="Y129" t="str">
         <v/>
@@ -18124,8 +18529,8 @@
       <c r="B137" t="str">
         <v/>
       </c>
-      <c r="C137" t="str">
-        <v/>
+      <c r="C137">
+        <v>23</v>
       </c>
       <c r="D137" t="str">
         <v/>
@@ -18201,8 +18606,8 @@
       <c r="B138" t="str">
         <v/>
       </c>
-      <c r="C138" t="str">
-        <v/>
+      <c r="C138">
+        <v>0</v>
       </c>
       <c r="D138" t="str">
         <v/>
@@ -18210,8 +18615,8 @@
       <c r="E138" t="str">
         <v/>
       </c>
-      <c r="F138" t="str">
-        <v/>
+      <c r="F138">
+        <v>-373</v>
       </c>
       <c r="G138" t="str">
         <v/>
@@ -18219,8 +18624,8 @@
       <c r="H138" t="str">
         <v/>
       </c>
-      <c r="I138" t="str">
-        <v/>
+      <c r="I138">
+        <v>373</v>
       </c>
       <c r="J138" t="str">
         <v/>
@@ -18228,8 +18633,8 @@
       <c r="K138" t="str">
         <v/>
       </c>
-      <c r="L138" t="str">
-        <v/>
+      <c r="L138">
+        <v>-373</v>
       </c>
       <c r="M138" t="str">
         <v/>
@@ -18237,8 +18642,8 @@
       <c r="N138" t="str">
         <v/>
       </c>
-      <c r="O138" t="str">
-        <v/>
+      <c r="O138">
+        <v>373</v>
       </c>
       <c r="P138" t="str">
         <v/>
@@ -18355,8 +18760,8 @@
       <c r="B140" t="str">
         <v/>
       </c>
-      <c r="C140" t="str">
-        <v/>
+      <c r="C140">
+        <v>7.39</v>
       </c>
       <c r="D140" t="str">
         <v/>
@@ -18364,8 +18769,8 @@
       <c r="E140" t="str">
         <v/>
       </c>
-      <c r="F140" t="str">
-        <v/>
+      <c r="F140">
+        <v>2.65</v>
       </c>
       <c r="G140" t="str">
         <v/>
@@ -18373,8 +18778,8 @@
       <c r="H140" t="str">
         <v/>
       </c>
-      <c r="I140" t="str">
-        <v/>
+      <c r="I140">
+        <v>1.86</v>
       </c>
       <c r="J140" t="str">
         <v/>
@@ -18382,8 +18787,8 @@
       <c r="K140" t="str">
         <v/>
       </c>
-      <c r="L140" t="str">
-        <v/>
+      <c r="L140">
+        <v>3.64</v>
       </c>
       <c r="M140" t="str">
         <v/>
@@ -18391,8 +18796,8 @@
       <c r="N140" t="str">
         <v/>
       </c>
-      <c r="O140" t="str">
-        <v/>
+      <c r="O140">
+        <v>3.23</v>
       </c>
       <c r="P140" t="str">
         <v/>
@@ -18432,8 +18837,8 @@
       <c r="B141" t="str">
         <v/>
       </c>
-      <c r="C141" t="str">
-        <v/>
+      <c r="C141">
+        <v>7.64</v>
       </c>
       <c r="D141" t="str">
         <v/>
@@ -18441,8 +18846,8 @@
       <c r="E141" t="str">
         <v/>
       </c>
-      <c r="F141" t="str">
-        <v/>
+      <c r="F141">
+        <v>2.66</v>
       </c>
       <c r="G141" t="str">
         <v/>
@@ -18450,8 +18855,8 @@
       <c r="H141" t="str">
         <v/>
       </c>
-      <c r="I141" t="str">
-        <v/>
+      <c r="I141">
+        <v>1.75</v>
       </c>
       <c r="J141" t="str">
         <v/>
@@ -18459,8 +18864,8 @@
       <c r="K141" t="str">
         <v/>
       </c>
-      <c r="L141" t="str">
-        <v/>
+      <c r="L141">
+        <v>3.66</v>
       </c>
       <c r="M141" t="str">
         <v/>
@@ -18468,8 +18873,8 @@
       <c r="N141" t="str">
         <v/>
       </c>
-      <c r="O141" t="str">
-        <v/>
+      <c r="O141">
+        <v>3.02</v>
       </c>
       <c r="P141" t="str">
         <v/>
@@ -18509,8 +18914,8 @@
       <c r="B142" t="str">
         <v/>
       </c>
-      <c r="C142" t="str">
-        <v/>
+      <c r="C142">
+        <v>8.89</v>
       </c>
       <c r="D142" t="str">
         <v/>
@@ -18518,8 +18923,8 @@
       <c r="E142" t="str">
         <v/>
       </c>
-      <c r="F142" t="str">
-        <v/>
+      <c r="F142">
+        <v>2.76</v>
       </c>
       <c r="G142" t="str">
         <v/>
@@ -18527,8 +18932,8 @@
       <c r="H142" t="str">
         <v/>
       </c>
-      <c r="I142" t="str">
-        <v/>
+      <c r="I142">
+        <v>1.82</v>
       </c>
       <c r="J142" t="str">
         <v/>
@@ -18536,8 +18941,8 @@
       <c r="K142" t="str">
         <v/>
       </c>
-      <c r="L142" t="str">
-        <v/>
+      <c r="L142">
+        <v>3.33</v>
       </c>
       <c r="M142" t="str">
         <v/>
@@ -18545,8 +18950,8 @@
       <c r="N142" t="str">
         <v/>
       </c>
-      <c r="O142" t="str">
-        <v/>
+      <c r="O142">
+        <v>3.02</v>
       </c>
       <c r="P142" t="str">
         <v/>
@@ -18586,8 +18991,8 @@
       <c r="B143" t="str">
         <v/>
       </c>
-      <c r="C143" t="str">
-        <v/>
+      <c r="C143">
+        <v>7.8</v>
       </c>
       <c r="D143" t="str">
         <v/>
@@ -18595,8 +19000,8 @@
       <c r="E143" t="str">
         <v/>
       </c>
-      <c r="F143" t="str">
-        <v/>
+      <c r="F143">
+        <v>2.66</v>
       </c>
       <c r="G143" t="str">
         <v/>
@@ -18604,8 +19009,8 @@
       <c r="H143" t="str">
         <v/>
       </c>
-      <c r="I143" t="str">
-        <v/>
+      <c r="I143">
+        <v>1.92</v>
       </c>
       <c r="J143" t="str">
         <v/>
@@ -18613,8 +19018,8 @@
       <c r="K143" t="str">
         <v/>
       </c>
-      <c r="L143" t="str">
-        <v/>
+      <c r="L143">
+        <v>3.32</v>
       </c>
       <c r="M143" t="str">
         <v/>
@@ -18622,8 +19027,8 @@
       <c r="N143" t="str">
         <v/>
       </c>
-      <c r="O143" t="str">
-        <v/>
+      <c r="O143">
+        <v>3.01</v>
       </c>
       <c r="P143" t="str">
         <v/>
@@ -18663,8 +19068,8 @@
       <c r="B144" t="str">
         <v/>
       </c>
-      <c r="C144" t="str">
-        <v/>
+      <c r="C144">
+        <v>8.0500000000000007</v>
       </c>
       <c r="D144" t="str">
         <v/>
@@ -18672,8 +19077,8 @@
       <c r="E144" t="str">
         <v/>
       </c>
-      <c r="F144" t="str">
-        <v/>
+      <c r="F144">
+        <v>3</v>
       </c>
       <c r="G144" t="str">
         <v/>
@@ -18681,8 +19086,8 @@
       <c r="H144" t="str">
         <v/>
       </c>
-      <c r="I144" t="str">
-        <v/>
+      <c r="I144">
+        <v>1.93</v>
       </c>
       <c r="J144" t="str">
         <v/>
@@ -18690,8 +19095,8 @@
       <c r="K144" t="str">
         <v/>
       </c>
-      <c r="L144" t="str">
-        <v/>
+      <c r="L144">
+        <v>3.7</v>
       </c>
       <c r="M144" t="str">
         <v/>
@@ -18699,8 +19104,8 @@
       <c r="N144" t="str">
         <v/>
       </c>
-      <c r="O144" t="str">
-        <v/>
+      <c r="O144">
+        <v>3.33</v>
       </c>
       <c r="P144" t="str">
         <v/>
@@ -19836,8 +20241,8 @@
       <c r="H159" t="str">
         <v/>
       </c>
-      <c r="I159" t="str">
-        <v/>
+      <c r="I159">
+        <v>2.7</v>
       </c>
       <c r="J159" t="str">
         <v/>
@@ -21915,8 +22320,8 @@
       <c r="H186" t="str">
         <v/>
       </c>
-      <c r="I186" t="str">
-        <v/>
+      <c r="I186">
+        <v>1.08</v>
       </c>
       <c r="J186" t="str">
         <v/>
